--- a/biology/Zoologie/Emoia_trossula/Emoia_trossula.xlsx
+++ b/biology/Zoologie/Emoia_trossula/Emoia_trossula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emoia trossula est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emoia trossula est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Fidji, dans les îles Cook et aux Tonga[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Fidji, dans les îles Cook et aux Tonga.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique trossula vient du latin trossula, coquette, en référence aux points colorés de ce saurien.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown &amp; Gibbons, 1986 : Species of the Emoia samoensis group of lizards (Scincidae) in the Fiji Islands, with descriptions of two new species. Proceedings of the California Academy of Sciences, sér. 4, vol. 44, no 4, p. 41-53 (texte intégral).</t>
         </is>
